--- a/fol_epit_compile.xlsx
+++ b/fol_epit_compile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="X_lab" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -62,12 +62,52 @@
   <si>
     <t>fol_ep_1.zvi</t>
   </si>
+  <si>
+    <t>An. Labranchiae</t>
+  </si>
+  <si>
+    <t>An. Atroparvus</t>
+  </si>
+  <si>
+    <t>rel_x_lab</t>
+  </si>
+  <si>
+    <t>rel_x_atr</t>
+  </si>
+  <si>
+    <t>Relative volume</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>atr</t>
+  </si>
+  <si>
+    <t>X_surf / X_vol</t>
+  </si>
+  <si>
+    <t>labranchiae</t>
+  </si>
+  <si>
+    <t>atroparvus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -99,16 +139,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -118,6 +270,4651 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nuc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> volume</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Compile!$AC$26:$AD$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>7.759505279912578</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.28241538309832</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Compile!$AC$26:$AD$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>7.759505279912578</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.28241538309832</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compile!$AC$24:$AD$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>labranchiae</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>atroparvus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compile!$AC$25:$AD$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42.14328843994866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.4072103930437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2143317920"/>
+        <c:axId val="-2121729424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143317920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121729424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121729424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2143317920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X_surf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> / X_vol</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Compile!$T$26:$U$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.691045814737728</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.200239177442258</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Compile!$T$26:$U$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.691045814737728</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.200239177442258</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compile!$T$24:$U$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>labranchiae</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>atroparvus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compile!$T$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.919634818347269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.341088825999379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2046220048"/>
+        <c:axId val="-2114239680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2046220048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2114239680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2114239680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2046220048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relative vol</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Compile!$Q$26:$R$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0003867212515834</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000423227928750204</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Compile!$Q$26:$R$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0003867212515834</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000423227928750204</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compile!$Q$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>labranchiae</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>atroparvus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compile!$Q$25:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.139477695271125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.139737382939953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2092201792"/>
+        <c:axId val="-2045293472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092201792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045293472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045293472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1402"/>
+          <c:min val="0.13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2092201792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voxel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>s per contact</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Compile!$W$26:$X$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>465.5427003486933</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1697.707416209469</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Compile!$W$26:$X$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>465.5427003486933</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1697.707416209469</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compile!$W$24:$X$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>labranchiae</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>atroparvus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compile!$W$25:$X$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>961.3157894736841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3265.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2089951840"/>
+        <c:axId val="2081026016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2089951840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081026016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2081026016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2089951840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Longest distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Compile!$Z$26:$AA$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.738278313568977</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.924771928033373</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Compile!$Z$24:$AA$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>labranchiae</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>atroparvus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compile!$Z$25:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.652859035291165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.705917656421659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2089062880"/>
+        <c:axId val="-2089525632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2089062880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2089525632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2089525632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2089062880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +5178,264 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,6 +5783,34 @@
         <v>4.5255200047045401</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="0">AVERAGE(C2:C20)</f>
+        <v>3.6528590352911654</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>28.865959588357565</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E2:E20)</f>
+        <v>5.8779612991656052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="1">STDEV(C2:C20)</f>
+        <v>0.738278313568977</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>6.8711823391717202</v>
+      </c>
+      <c r="E23">
+        <f>STDEV(E2:E20)</f>
+        <v>1.081893198063568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -742,10 +5819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,6 +6230,42 @@
         <v>32.419504254609201</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" ref="C22:E22" si="0">AVERAGE(C2:C20)</f>
+        <v>5.3534688698618007</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>961.31578947368416</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>91.147038948112026</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F2:F20)</f>
+        <v>42.143288439948662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" ref="C23:E23" si="1">STDEV(C2:C20)</f>
+        <v>0.40659947434721477</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>465.5427003486933</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>10.578734151849272</v>
+      </c>
+      <c r="F23">
+        <f>STDEV(F2:F20)</f>
+        <v>7.7595052799125783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1161,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,17 +6663,46 @@
       </c>
       <c r="F21" s="1"/>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" ref="C24:D24" si="0">AVERAGE(C2:C21)</f>
+        <v>4.7059176564216587</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>50.465790554983556</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(E2:E21)</f>
+        <v>15.147538571678293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" ref="C25:D25" si="1">STDEV(C2:C21)</f>
+        <v>0.92477192803337294</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>8.3482921743795924</v>
+      </c>
+      <c r="E25">
+        <f>STDEV(E2:E21)</f>
+        <v>2.5508998739068618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2009,20 +7151,1949 @@
       </c>
       <c r="G21" s="1"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" ref="C23:E23" si="0">AVERAGE(C2:C21)</f>
+        <v>7.4338728904724096</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3265.95</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>171.02870592096403</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F2:F21)</f>
+        <v>108.40721039304374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="1">STDEV(C2:C21)</f>
+        <v>0.42679811590252204</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1697.7074162094689</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>18.658980246970312</v>
+      </c>
+      <c r="F24">
+        <f>STDEV(F2:F21)</f>
+        <v>18.282415383098318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="R17" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="9" width="21" customWidth="1"/>
+    <col min="10" max="13" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="W1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="14"/>
+      <c r="Z1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="14"/>
+      <c r="AC1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="14"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5.2336111068725497</v>
+      </c>
+      <c r="B3">
+        <v>28.815727918164502</v>
+      </c>
+      <c r="C3">
+        <v>5.4413352955974101</v>
+      </c>
+      <c r="D3">
+        <v>5.2336111068725497</v>
+      </c>
+      <c r="E3">
+        <v>1186</v>
+      </c>
+      <c r="F3">
+        <v>87.270039800036898</v>
+      </c>
+      <c r="G3" s="2">
+        <v>39.135483054490301</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.9174551963806099</v>
+      </c>
+      <c r="I3" s="1">
+        <v>70.531869639815397</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20.3745787990389</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8.5495529174804599</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4640</v>
+      </c>
+      <c r="M3" s="1">
+        <v>210.29372693267101</v>
+      </c>
+      <c r="N3" s="1">
+        <v>145.67744439213001</v>
+      </c>
+      <c r="Q3">
+        <f>C3/G3</f>
+        <v>0.13903840890429703</v>
+      </c>
+      <c r="R3">
+        <f>J3/N3</f>
+        <v>0.13986090217367655</v>
+      </c>
+      <c r="T3">
+        <f>B3/C3</f>
+        <v>5.2957089303942242</v>
+      </c>
+      <c r="U3">
+        <f>I3/J3</f>
+        <v>3.461758416480369</v>
+      </c>
+      <c r="W3">
+        <v>1186</v>
+      </c>
+      <c r="X3" s="1">
+        <v>4640</v>
+      </c>
+      <c r="Z3">
+        <v>5.2336111068725497</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>7.9174551963806099</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>39.135483054490301</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>145.67744439213001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.0084476470947203</v>
+      </c>
+      <c r="B4">
+        <v>26.207145880549</v>
+      </c>
+      <c r="C4">
+        <v>5.3181554611498303</v>
+      </c>
+      <c r="D4">
+        <v>4.9189972877502397</v>
+      </c>
+      <c r="E4">
+        <v>1403</v>
+      </c>
+      <c r="F4">
+        <v>84.190023782091501</v>
+      </c>
+      <c r="G4" s="2">
+        <v>38.355344102989001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.4562382698059002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>60.223977917774199</v>
+      </c>
+      <c r="J4" s="1">
+        <v>18.1799047616054</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.6729612350463796</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2485</v>
+      </c>
+      <c r="M4" s="1">
+        <v>189.947750987126</v>
+      </c>
+      <c r="N4" s="1">
+        <v>130.235324030334</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q22" si="0">C4/G4</f>
+        <v>0.1386548754945309</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R22" si="1">J4/N4</f>
+        <v>0.13959273259358571</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T22" si="2">B4/C4</f>
+        <v>4.9278638189495112</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U22" si="3">I4/J4</f>
+        <v>3.3126674043399138</v>
+      </c>
+      <c r="W4">
+        <v>1403</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2485</v>
+      </c>
+      <c r="Z4">
+        <v>4.0084476470947203</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>5.4562382698059002</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>38.355344102989001</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>130.235324030334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2.9537835121154701</v>
+      </c>
+      <c r="B5">
+        <v>25.9338338963314</v>
+      </c>
+      <c r="C5">
+        <v>6.3785731663942098</v>
+      </c>
+      <c r="D5">
+        <v>5.7408928871154696</v>
+      </c>
+      <c r="E5">
+        <v>1126</v>
+      </c>
+      <c r="F5">
+        <v>95.285001880200198</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45.7657715347557</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.2581686973571697</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50.766681948999803</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15.375422597996501</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.2161631584167401</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1560</v>
+      </c>
+      <c r="M5" s="1">
+        <v>180.35160880427901</v>
+      </c>
+      <c r="N5" s="1">
+        <v>109.778167047542</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0.13937431736620365</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0.14005902094664976</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>4.0657735232959205</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>3.3018072593084349</v>
+      </c>
+      <c r="W5">
+        <v>1126</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1560</v>
+      </c>
+      <c r="Z5">
+        <v>2.9537835121154701</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4.2581686973571697</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>45.7657715347557</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>109.778167047542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.69267678260803</v>
+      </c>
+      <c r="B6">
+        <v>33.304935997357703</v>
+      </c>
+      <c r="C6">
+        <v>6.3535801565063004</v>
+      </c>
+      <c r="D6">
+        <v>5.3758053779601997</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>96.187573803303295</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45.524767510836497</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.3142061233520499</v>
+      </c>
+      <c r="I6" s="1">
+        <v>53.828010016371799</v>
+      </c>
+      <c r="J6" s="1">
+        <v>17.935346294337101</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7.5246677398681596</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2758</v>
+      </c>
+      <c r="M6" s="1">
+        <v>195.32945665369499</v>
+      </c>
+      <c r="N6" s="1">
+        <v>128.39319531584499</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0.13956315438610256</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0.13969078540507124</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>5.2419163962623845</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>3.0012250186308047</v>
+      </c>
+      <c r="W6">
+        <v>40</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2758</v>
+      </c>
+      <c r="Z6">
+        <v>3.69267678260803</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>4.3142061233520499</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>45.524767510836497</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>128.39319531584499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.41147756576538</v>
+      </c>
+      <c r="B7">
+        <v>38.054753882923798</v>
+      </c>
+      <c r="C7">
+        <v>7.2765363073671496</v>
+      </c>
+      <c r="D7">
+        <v>5.7049126625061</v>
+      </c>
+      <c r="E7">
+        <v>198</v>
+      </c>
+      <c r="F7">
+        <v>105.172851812326</v>
+      </c>
+      <c r="G7" s="2">
+        <v>52.313940125389301</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.4530844688415501</v>
+      </c>
+      <c r="I7" s="1">
+        <v>56.832690056797702</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15.9757024722004</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.8134574890136701</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2923</v>
+      </c>
+      <c r="M7" s="1">
+        <v>173.30783936180501</v>
+      </c>
+      <c r="N7" s="1">
+        <v>113.532298324309</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.1390936390936392</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0.14071504504000479</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>5.2297895970635304</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>3.5574454491558831</v>
+      </c>
+      <c r="W7">
+        <v>198</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2923</v>
+      </c>
+      <c r="Z7">
+        <v>4.41147756576538</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5.4530844688415501</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>52.313940125389301</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>113.532298324309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4.07694339752197</v>
+      </c>
+      <c r="B8">
+        <v>25.965223905094401</v>
+      </c>
+      <c r="C8">
+        <v>5.5895081399329101</v>
+      </c>
+      <c r="D8">
+        <v>4.9014348983764604</v>
+      </c>
+      <c r="E8">
+        <v>1265</v>
+      </c>
+      <c r="F8">
+        <v>89.054451637167602</v>
+      </c>
+      <c r="G8" s="2">
+        <v>39.992386250647399</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.3042716979980398</v>
+      </c>
+      <c r="I8" s="1">
+        <v>53.919405895667602</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14.7116210439826</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7.5709128379821697</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2475</v>
+      </c>
+      <c r="M8" s="1">
+        <v>173.70364487452099</v>
+      </c>
+      <c r="N8" s="1">
+        <v>105.503157996333</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.13976430675832519</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0.13944247094948509</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>4.6453504056272932</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>3.6650893694493245</v>
+      </c>
+      <c r="W8">
+        <v>1265</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2475</v>
+      </c>
+      <c r="Z8">
+        <v>4.07694339752197</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5.3042716979980398</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>39.992386250647399</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>105.503157996333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.3076331615447998</v>
+      </c>
+      <c r="B9">
+        <v>30.807021888689601</v>
+      </c>
+      <c r="C9">
+        <v>7.7496182802455298</v>
+      </c>
+      <c r="D9">
+        <v>5.7258133888244602</v>
+      </c>
+      <c r="E9">
+        <v>426</v>
+      </c>
+      <c r="F9">
+        <v>110.551053580627</v>
+      </c>
+      <c r="G9" s="2">
+        <v>55.559460980834203</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.6911563873290998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>52.1208320844338</v>
+      </c>
+      <c r="J9" s="1">
+        <v>16.394945558945999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7.4649415016174299</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5171</v>
+      </c>
+      <c r="M9" s="1">
+        <v>171.47378702232601</v>
+      </c>
+      <c r="N9" s="1">
+        <v>117.267373097134</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.13948332369385008</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0.13980824440712819</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>3.9752953983836155</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>3.1790793020348738</v>
+      </c>
+      <c r="W9">
+        <v>426</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5171</v>
+      </c>
+      <c r="Z9">
+        <v>3.3076331615447998</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>4.6911563873290998</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>55.559460980834203</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>117.267373097134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3.1249477863311701</v>
+      </c>
+      <c r="B10">
+        <v>24.335133943323399</v>
+      </c>
+      <c r="C10">
+        <v>4.5951433893922999</v>
+      </c>
+      <c r="D10">
+        <v>4.8736658096313397</v>
+      </c>
+      <c r="E10">
+        <v>620</v>
+      </c>
+      <c r="F10">
+        <v>77.637105662826897</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32.969350472143397</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.2002739906311</v>
+      </c>
+      <c r="I10" s="1">
+        <v>47.182090047213698</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14.3304909651229</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.7459378242492596</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1091</v>
+      </c>
+      <c r="M10" s="1">
+        <v>162.94490537673499</v>
+      </c>
+      <c r="N10" s="1">
+        <v>102.387419601655</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0.13937621832358657</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0.13996339609765163</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>5.2958377750518206</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>3.2924266280927843</v>
+      </c>
+      <c r="W10">
+        <v>620</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1091</v>
+      </c>
+      <c r="Z10">
+        <v>3.1249477863311701</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5.2002739906311</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>32.969350472143397</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>102.387419601655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.7520360946655202</v>
+      </c>
+      <c r="B11">
+        <v>46.766719907729701</v>
+      </c>
+      <c r="C11">
+        <v>6.8677220742005396</v>
+      </c>
+      <c r="D11">
+        <v>5.3646502494812003</v>
+      </c>
+      <c r="E11">
+        <v>1466</v>
+      </c>
+      <c r="F11">
+        <v>99.957877665359106</v>
+      </c>
+      <c r="G11" s="2">
+        <v>48.907749920664898</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.2612428665161097</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46.612397988857701</v>
+      </c>
+      <c r="J11" s="1">
+        <v>13.4507156997552</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.83866214752197</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2160</v>
+      </c>
+      <c r="M11" s="1">
+        <v>162.35272922963199</v>
+      </c>
+      <c r="N11" s="1">
+        <v>96.432262119473194</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.14042195941013297</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0.13948356498254344</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>6.8096407225642919</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>3.465421396848499</v>
+      </c>
+      <c r="W11">
+        <v>1466</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2160</v>
+      </c>
+      <c r="Z11">
+        <v>4.7520360946655202</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>4.2612428665161097</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>48.907749920664898</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>96.432262119473194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4.7805466651916504</v>
+      </c>
+      <c r="B12">
+        <v>40.371044039548202</v>
+      </c>
+      <c r="C12">
+        <v>6.8552255692565804</v>
+      </c>
+      <c r="D12">
+        <v>5.8600502014160103</v>
+      </c>
+      <c r="E12">
+        <v>1053</v>
+      </c>
+      <c r="F12">
+        <v>97.5189478494041</v>
+      </c>
+      <c r="G12" s="2">
+        <v>49.337986733735498</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.0014772415161097</v>
+      </c>
+      <c r="I12" s="1">
+        <v>47.035505926352499</v>
+      </c>
+      <c r="J12" s="1">
+        <v>14.2193280254555</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7.3406414985656703</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4824</v>
+      </c>
+      <c r="M12" s="1">
+        <v>166.87376479633301</v>
+      </c>
+      <c r="N12" s="1">
+        <v>101.809372315384</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.13894416904873885</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0.13966619872094896</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>5.8890905385519305</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>3.3078571534568542</v>
+      </c>
+      <c r="W12">
+        <v>1053</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4824</v>
+      </c>
+      <c r="Z12">
+        <v>4.7805466651916504</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4.0014772415161097</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>49.337986733735498</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>101.809372315384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3.4611546993255602</v>
+      </c>
+      <c r="B13">
+        <v>26.088301804619501</v>
+      </c>
+      <c r="C13">
+        <v>6.0161745230194503</v>
+      </c>
+      <c r="D13">
+        <v>5.34853172302246</v>
+      </c>
+      <c r="E13">
+        <v>606</v>
+      </c>
+      <c r="F13">
+        <v>95.295951521504705</v>
+      </c>
+      <c r="G13" s="2">
+        <v>43.166498506412502</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4.3011279106140101</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44.376845929399501</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12.513770922558599</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7.45839118957519</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1412</v>
+      </c>
+      <c r="M13" s="1">
+        <v>152.44473094151101</v>
+      </c>
+      <c r="N13" s="1">
+        <v>89.340066568693203</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.13937138130686536</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0.14006896796899981</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>4.3363605402068819</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>3.5462408736763171</v>
+      </c>
+      <c r="W13">
+        <v>606</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1412</v>
+      </c>
+      <c r="Z13">
+        <v>3.4611546993255602</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>4.3011279106140101</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>43.166498506412502</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>89.340066568693203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.7380952835082999</v>
+      </c>
+      <c r="B14">
+        <v>29.968251789367201</v>
+      </c>
+      <c r="C14">
+        <v>6.4839008509218496</v>
+      </c>
+      <c r="D14">
+        <v>6.0752186775207502</v>
+      </c>
+      <c r="E14">
+        <v>1402</v>
+      </c>
+      <c r="F14">
+        <v>97.485805586923405</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46.463790596625302</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.7872259616851802</v>
+      </c>
+      <c r="I14" s="1">
+        <v>36.327428030107001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>11.449782785742</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7.6097478866577104</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5579</v>
+      </c>
+      <c r="M14" s="1">
+        <v>144.26551880284899</v>
+      </c>
+      <c r="N14" s="1">
+        <v>81.987432130692397</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.13954739309178921</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0.13965290152630255</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>4.6219478795864779</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>3.1727613274327116</v>
+      </c>
+      <c r="W14">
+        <v>1402</v>
+      </c>
+      <c r="X14" s="1">
+        <v>5579</v>
+      </c>
+      <c r="Z14">
+        <v>3.7380952835082999</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>3.7872259616851802</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>46.463790596625302</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>81.987432130692397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3.1790494918823198</v>
+      </c>
+      <c r="B15">
+        <v>21.841453941073699</v>
+      </c>
+      <c r="C15">
+        <v>4.5915729594083103</v>
+      </c>
+      <c r="D15">
+        <v>5.1738076210021902</v>
+      </c>
+      <c r="E15">
+        <v>435</v>
+      </c>
+      <c r="F15">
+        <v>80.848667651723005</v>
+      </c>
+      <c r="G15" s="2">
+        <v>32.855096712655701</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.2906546592712402</v>
+      </c>
+      <c r="I15" s="1">
+        <v>47.910337771890802</v>
+      </c>
+      <c r="J15" s="1">
+        <v>14.927594755336401</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7.3475351333618102</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3419</v>
+      </c>
+      <c r="M15" s="1">
+        <v>168.57627089291501</v>
+      </c>
+      <c r="N15" s="1">
+        <v>106.789472012484</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0.13975222777657045</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0.13978526603812894</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>4.7568565574722523</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="3"/>
+        <v>3.2095148988931084</v>
+      </c>
+      <c r="W15">
+        <v>435</v>
+      </c>
+      <c r="X15" s="1">
+        <v>3419</v>
+      </c>
+      <c r="Z15">
+        <v>3.1790494918823198</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>4.2906546592712402</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>32.855096712655701</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>106.789472012484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2.9080662727355899</v>
+      </c>
+      <c r="B16">
+        <v>24.34944191772</v>
+      </c>
+      <c r="C16">
+        <v>5.8769277536439297</v>
+      </c>
+      <c r="D16">
+        <v>5.4598584175109801</v>
+      </c>
+      <c r="E16">
+        <v>1029</v>
+      </c>
+      <c r="F16">
+        <v>90.723815688829902</v>
+      </c>
+      <c r="G16" s="2">
+        <v>42.070376501328298</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.7716865539550701</v>
+      </c>
+      <c r="I16" s="1">
+        <v>48.8113039528331</v>
+      </c>
+      <c r="J16" s="1">
+        <v>14.9625316792318</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7.5249915122985804</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1700</v>
+      </c>
+      <c r="M16" s="1">
+        <v>169.18552887858101</v>
+      </c>
+      <c r="N16" s="1">
+        <v>107.250004191106</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0.13969277773062896</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0.13951077943615231</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>4.1432263486006571</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="3"/>
+        <v>3.2622356295882642</v>
+      </c>
+      <c r="W16">
+        <v>1029</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1700</v>
+      </c>
+      <c r="Z16">
+        <v>2.9080662727355899</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>4.7716865539550701</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>42.070376501328298</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>107.250004191106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4.0084476470947203</v>
+      </c>
+      <c r="B17">
+        <v>31.214215946457799</v>
+      </c>
+      <c r="C17">
+        <v>6.4142774662340898</v>
+      </c>
+      <c r="D17">
+        <v>5.6182188987731898</v>
+      </c>
+      <c r="E17">
+        <v>733</v>
+      </c>
+      <c r="F17">
+        <v>96.481325589330993</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45.885380939219203</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.63867807388305</v>
+      </c>
+      <c r="I17" s="1">
+        <v>33.313841993519603</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9.2106435724416205</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7.1301231384277299</v>
+      </c>
+      <c r="L17" s="1">
+        <v>623</v>
+      </c>
+      <c r="M17" s="1">
+        <v>127.697731018045</v>
+      </c>
+      <c r="N17" s="1">
+        <v>65.697297343432695</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0.13978912967357915</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0.14019821126420118</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>4.8663650911228968</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>3.6168853708762656</v>
+      </c>
+      <c r="W17">
+        <v>733</v>
+      </c>
+      <c r="X17" s="1">
+        <v>623</v>
+      </c>
+      <c r="Z17">
+        <v>4.0084476470947203</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>3.63867807388305</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>45.885380939219203</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>65.697297343432695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3.0531435012817298</v>
+      </c>
+      <c r="B18">
+        <v>22.766071886775499</v>
+      </c>
+      <c r="C18">
+        <v>4.7593831686557397</v>
+      </c>
+      <c r="D18">
+        <v>5.2289624214172301</v>
+      </c>
+      <c r="E18">
+        <v>949</v>
+      </c>
+      <c r="F18">
+        <v>83.370379612467005</v>
+      </c>
+      <c r="G18" s="2">
+        <v>34.036909037355699</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4.4167461395263601</v>
+      </c>
+      <c r="I18" s="1">
+        <v>47.942166053481998</v>
+      </c>
+      <c r="J18" s="1">
+        <v>13.3840179359548</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.90879106521606</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4570</v>
+      </c>
+      <c r="M18" s="1">
+        <v>151.68115118926701</v>
+      </c>
+      <c r="N18" s="1">
+        <v>96.028899452680093</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0.1398300639882514</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0.13937489664296326</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>4.7834080762204412</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>3.5820458611827064</v>
+      </c>
+      <c r="W18">
+        <v>949</v>
+      </c>
+      <c r="X18" s="1">
+        <v>4570</v>
+      </c>
+      <c r="Z18">
+        <v>3.0531435012817298</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>4.4167461395263601</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>34.036909037355699</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>96.028899452680093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3.0791246891021702</v>
+      </c>
+      <c r="B19">
+        <v>29.581935915013901</v>
+      </c>
+      <c r="C19">
+        <v>6.8552255692565804</v>
+      </c>
+      <c r="D19">
+        <v>5.2366528511047301</v>
+      </c>
+      <c r="E19">
+        <v>1669</v>
+      </c>
+      <c r="F19">
+        <v>99.223205568787705</v>
+      </c>
+      <c r="G19" s="2">
+        <v>49.188028674408002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.9466094970703098</v>
+      </c>
+      <c r="I19" s="1">
+        <v>61.578420010285299</v>
+      </c>
+      <c r="J19" s="1">
+        <v>18.688078200084998</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7.7382164001464799</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3721</v>
+      </c>
+      <c r="M19" s="1">
+        <v>192.01511070820399</v>
+      </c>
+      <c r="N19" s="1">
+        <v>134.06568132287299</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0.13936776394584968</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0.13939494444576114</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>4.3152388810776845</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="3"/>
+        <v>3.2950643373273785</v>
+      </c>
+      <c r="W19">
+        <v>1669</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3721</v>
+      </c>
+      <c r="Z19">
+        <v>3.0791246891021702</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>4.9466094970703098</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>49.188028674408002</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>134.06568132287299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2.93686318397521</v>
+      </c>
+      <c r="B20">
+        <v>20.7706898427585</v>
+      </c>
+      <c r="C20">
+        <v>3.7328845482592499</v>
+      </c>
+      <c r="D20">
+        <v>4.3635439872741699</v>
+      </c>
+      <c r="E20">
+        <v>1408</v>
+      </c>
+      <c r="F20">
+        <v>68.479401654996707</v>
+      </c>
+      <c r="G20" s="2">
+        <v>26.774654449924501</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.2613854408264098</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45.331977718933203</v>
+      </c>
+      <c r="J20" s="1">
+        <v>15.2801400782815</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7.8744053840637198</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2355</v>
+      </c>
+      <c r="M20" s="1">
+        <v>177.13260068074399</v>
+      </c>
+      <c r="N20" s="1">
+        <v>110.098951530582</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0.1394185891452196</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0.13878551853454446</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>5.5642465161277119</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>2.9667252712798113</v>
+      </c>
+      <c r="W20">
+        <v>1408</v>
+      </c>
+      <c r="X20" s="1">
+        <v>2355</v>
+      </c>
+      <c r="Z20">
+        <v>2.93686318397521</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>4.2613854408264098</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>26.774654449924501</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>110.098951530582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2.6982731819152801</v>
+      </c>
+      <c r="B21">
+        <v>21.311327875295898</v>
+      </c>
+      <c r="C21">
+        <v>4.5255200047045401</v>
+      </c>
+      <c r="D21">
+        <v>5.5112800598144496</v>
+      </c>
+      <c r="E21">
+        <v>1251</v>
+      </c>
+      <c r="F21">
+        <v>77.060259666222507</v>
+      </c>
+      <c r="G21" s="2">
+        <v>32.419504254609201</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.01063680648803</v>
+      </c>
+      <c r="I21" s="1">
+        <v>49.278065999908499</v>
+      </c>
+      <c r="J21" s="1">
+        <v>15.6993831650272</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7.8246326446533203</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5152</v>
+      </c>
+      <c r="M21" s="1">
+        <v>179.16302234926599</v>
+      </c>
+      <c r="N21" s="1">
+        <v>111.84897380934601</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0.13959251101321607</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0.14036233530213554</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>4.7091445520385591</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>3.1388536404209177</v>
+      </c>
+      <c r="W21">
+        <v>1251</v>
+      </c>
+      <c r="X21" s="1">
+        <v>5152</v>
+      </c>
+      <c r="Z21">
+        <v>2.6982731819152801</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>4.01063680648803</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>32.419504254609201</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>111.84897380934601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+      <c r="H22" s="1">
+        <v>4.8360271453857404</v>
+      </c>
+      <c r="I22" s="1">
+        <v>55.391962117028001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>15.8867721204665</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7.5227251052856401</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6701</v>
+      </c>
+      <c r="M22" s="1">
+        <v>171.833238918776</v>
+      </c>
+      <c r="N22" s="1">
+        <v>114.02141525884601</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0.13933147632311968</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>3.4866719115123477</v>
+      </c>
+      <c r="X22" s="1">
+        <v>6701</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>4.8360271453857404</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="1">
+        <v>114.02141525884601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+      <c r="Q24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>AVERAGE(A3:A21)</f>
+        <v>3.6528590352911654</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B3:B21)</f>
+        <v>28.865959588357565</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C3:C21)</f>
+        <v>5.8779612991656052</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(D3:D21)</f>
+        <v>5.3534688698618007</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(E3:E21)</f>
+        <v>961.31578947368416</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(F3:F21)</f>
+        <v>91.147038948112026</v>
+      </c>
+      <c r="G25" s="2">
+        <f>AVERAGE(G3:G21)</f>
+        <v>42.143288439948662</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:I25" si="4">AVERAGE(H3:H22)</f>
+        <v>4.7059176564216587</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>50.465790554983556</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(J3:J22)</f>
+        <v>15.147538571678293</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(K3:K22)</f>
+        <v>7.4338728904724096</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(L3:L22)</f>
+        <v>3265.95</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(M3:M22)</f>
+        <v>171.02870592096403</v>
+      </c>
+      <c r="N25">
+        <f>AVERAGE(N3:N22)</f>
+        <v>108.40721039304374</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" ref="O25:R25" si="5">AVERAGE(Q3:Q22)</f>
+        <v>0.13947769527112511</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="5"/>
+        <v>0.13973738293995269</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12">
+        <f t="shared" ref="S25:U25" si="6">AVERAGE(T3:T22)</f>
+        <v>4.9196348183472693</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="6"/>
+        <v>3.3410888259993792</v>
+      </c>
+      <c r="W25">
+        <f>AVERAGE(W3:W21)</f>
+        <v>961.31578947368416</v>
+      </c>
+      <c r="X25">
+        <f>AVERAGE(X3:X22)</f>
+        <v>3265.95</v>
+      </c>
+      <c r="Z25">
+        <f>AVERAGE(Z3:Z21)</f>
+        <v>3.6528590352911654</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ref="AA25" si="7">AVERAGE(AA3:AA22)</f>
+        <v>4.7059176564216587</v>
+      </c>
+      <c r="AC25" s="2">
+        <f>AVERAGE(AC3:AC21)</f>
+        <v>42.143288439948662</v>
+      </c>
+      <c r="AD25">
+        <f>AVERAGE(AD3:AD22)</f>
+        <v>108.40721039304374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>STDEV(A3:A21)</f>
+        <v>0.738278313568977</v>
+      </c>
+      <c r="B26">
+        <f>STDEV(B3:B21)</f>
+        <v>6.8711823391717202</v>
+      </c>
+      <c r="C26">
+        <f>STDEV(C3:C21)</f>
+        <v>1.081893198063568</v>
+      </c>
+      <c r="D26">
+        <f>STDEV(D3:D21)</f>
+        <v>0.40659947434721477</v>
+      </c>
+      <c r="E26">
+        <f>STDEV(E3:E21)</f>
+        <v>465.5427003486933</v>
+      </c>
+      <c r="F26">
+        <f>STDEV(F3:F21)</f>
+        <v>10.578734151849272</v>
+      </c>
+      <c r="G26" s="2">
+        <f>STDEV(G3:G21)</f>
+        <v>7.7595052799125783</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:I26" si="8">STDEV(H3:H22)</f>
+        <v>0.92477192803337294</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>8.3482921743795924</v>
+      </c>
+      <c r="J26">
+        <f>STDEV(J3:J22)</f>
+        <v>2.5508998739068618</v>
+      </c>
+      <c r="K26">
+        <f>STDEV(K3:K22)</f>
+        <v>0.42679811590252204</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(L3:L22)</f>
+        <v>1697.7074162094689</v>
+      </c>
+      <c r="M26">
+        <f>STDEV(M3:M22)</f>
+        <v>18.658980246970312</v>
+      </c>
+      <c r="N26">
+        <f>STDEV(N3:N22)</f>
+        <v>18.282415383098318</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" ref="O26:R26" si="9">STDEV(Q3:Q22)</f>
+        <v>3.8672125158339965E-4</v>
+      </c>
+      <c r="R26" s="11">
+        <f t="shared" si="9"/>
+        <v>4.2322792875020443E-4</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="12">
+        <f t="shared" ref="S26:U26" si="10">STDEV(T3:T22)</f>
+        <v>0.69104581473772786</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" si="10"/>
+        <v>0.20023917744225767</v>
+      </c>
+      <c r="W26">
+        <f>STDEV(W3:W21)</f>
+        <v>465.5427003486933</v>
+      </c>
+      <c r="X26">
+        <f>STDEV(X3:X22)</f>
+        <v>1697.7074162094689</v>
+      </c>
+      <c r="Z26">
+        <f>STDEV(Z3:Z21)</f>
+        <v>0.738278313568977</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26" si="11">STDEV(AA3:AA22)</f>
+        <v>0.92477192803337294</v>
+      </c>
+      <c r="AC26" s="2">
+        <f>STDEV(AC3:AC21)</f>
+        <v>7.7595052799125783</v>
+      </c>
+      <c r="AD26">
+        <f>STDEV(AD3:AD22)</f>
+        <v>18.282415383098318</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>